--- a/Risk mangaement Log.xlsx
+++ b/Risk mangaement Log.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PeacheyMacbook/Google Drive/Uni/ITC303 - Dev 1/Asses2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PeacheyMacbook/Google Drive/Uni/Development-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="32900" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="32900" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -730,6 +730,24 @@
   </si>
   <si>
     <t xml:space="preserve">*note: Any additional risks that come up in iteration plan meetings must be reported to this document. Conversly, any risks that are added to this plan must be brought up in iteration plan meetings. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project scope has not been clearly identified. Group members are currently completing tasks without a succient project vision. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wuthout a common vision all team members are currently developing based on their own understanding of the project. This could lead to inconsistant work being completed among members, affecting the outcome of the project. </t>
+  </si>
+  <si>
+    <t>Project Planning, Project Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parts of assignments are being completed without the vision document being completed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As part of Assignment 1. A project vision will be submitted and distributed to team members throughout its development. This will give all group members the same goal when writing their documentation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly meetings are being held to keep eveyrone accoutable for their work. Minimising any long term effects with not having this document. </t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1077,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1084,9 +1102,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1681,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1698,23 +1713,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="27" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="27" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="26" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1771,125 +1786,146 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="55" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="13"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="55" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="33" t="s">
+      <c r="L9" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:13" ht="55" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="str">
-        <f t="shared" ref="E10:E12" si="0">IF(OR(AND(B10&lt;&gt;"Closed",C10="High",D10="High"),AND(B10&lt;&gt;"Closed",C10="High",D10="Medium"),AND(B10&lt;&gt;"Closed",C10="Medium",D10="High")),"Red",IF(OR(AND(B10&lt;&gt;"Closed",C10="High",D10="Low"),AND(B10&lt;&gt;"Closed",C10="Medium",D10="Medium"),AND(B10&lt;&gt;"Closed",C10="Low",D10="High")),"Yellow",IF(OR(AND(B10&lt;&gt;"Closed",C10="Medium",D10="Low"),AND(B10&lt;&gt;"Closed",C10="Low",D10="Low"),AND(B10&lt;&gt;"Closed",C10="Low",D10="Medium")),"Green",IF(B10="Closed","Closed",""))))</f>
-        <v/>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="35"/>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="15"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E10:E12" si="0">IF(OR(AND(B11&lt;&gt;"Closed",C11="High",D11="High"),AND(B11&lt;&gt;"Closed",C11="High",D11="Medium"),AND(B11&lt;&gt;"Closed",C11="Medium",D11="High")),"Red",IF(OR(AND(B11&lt;&gt;"Closed",C11="High",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Medium",D11="Medium"),AND(B11&lt;&gt;"Closed",C11="Low",D11="High")),"Yellow",IF(OR(AND(B11&lt;&gt;"Closed",C11="Medium",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Low",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Low",D11="Medium")),"Green",IF(B11="Closed","Closed",""))))</f>
         <v/>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="6"/>
@@ -1899,22 +1935,22 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="20"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1935,7 +1971,7 @@
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10:L12">
+  <conditionalFormatting sqref="L11:L12">
     <cfRule type="cellIs" dxfId="13" priority="10" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
@@ -1988,7 +2024,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10:L12 C8:D12 E9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 C8:D12 L11:L12">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K12">

--- a/Risk mangaement Log.xlsx
+++ b/Risk mangaement Log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="32900" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="32900" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -735,9 +735,6 @@
     <t xml:space="preserve">Project scope has not been clearly identified. Group members are currently completing tasks without a succient project vision. </t>
   </si>
   <si>
-    <t xml:space="preserve">Wuthout a common vision all team members are currently developing based on their own understanding of the project. This could lead to inconsistant work being completed among members, affecting the outcome of the project. </t>
-  </si>
-  <si>
     <t>Project Planning, Project Management</t>
   </si>
   <si>
@@ -748,6 +745,9 @@
   </si>
   <si>
     <t xml:space="preserve">Weekly meetings are being held to keep eveyrone accoutable for their work. Minimising any long term effects with not having this document. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without a common vision all team members are currently developing based on their own understanding of the project. This could lead to inconsistant work being completed among members, affecting the outcome of the project. </t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1697,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1885,23 +1885,23 @@
         <v>41</v>
       </c>
       <c r="G10" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="J10" s="31"/>
       <c r="K10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="34" t="s">
         <v>45</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1912,7 +1912,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="14"/>
       <c r="E11" s="8" t="str">
-        <f t="shared" ref="E10:E12" si="0">IF(OR(AND(B11&lt;&gt;"Closed",C11="High",D11="High"),AND(B11&lt;&gt;"Closed",C11="High",D11="Medium"),AND(B11&lt;&gt;"Closed",C11="Medium",D11="High")),"Red",IF(OR(AND(B11&lt;&gt;"Closed",C11="High",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Medium",D11="Medium"),AND(B11&lt;&gt;"Closed",C11="Low",D11="High")),"Yellow",IF(OR(AND(B11&lt;&gt;"Closed",C11="Medium",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Low",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Low",D11="Medium")),"Green",IF(B11="Closed","Closed",""))))</f>
+        <f t="shared" ref="E11:E12" si="0">IF(OR(AND(B11&lt;&gt;"Closed",C11="High",D11="High"),AND(B11&lt;&gt;"Closed",C11="High",D11="Medium"),AND(B11&lt;&gt;"Closed",C11="Medium",D11="High")),"Red",IF(OR(AND(B11&lt;&gt;"Closed",C11="High",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Medium",D11="Medium"),AND(B11&lt;&gt;"Closed",C11="Low",D11="High")),"Yellow",IF(OR(AND(B11&lt;&gt;"Closed",C11="Medium",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Low",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Low",D11="Medium")),"Green",IF(B11="Closed","Closed",""))))</f>
         <v/>
       </c>
       <c r="F11" s="15"/>

--- a/Risk mangaement Log.xlsx
+++ b/Risk mangaement Log.xlsx
@@ -122,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="E7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="1">
+    <comment ref="F7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="G7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="1">
+    <comment ref="H7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -417,7 +417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="I7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -437,29 +437,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> This column should be populated with the appropriate risk area.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I7" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>• Symptoms:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  This column should be populated with the symptoms of risk that may eventually lead to the execution of a risk contingency plan.</t>
         </r>
       </text>
     </comment>
@@ -473,16 +450,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">• Triggers:  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be populated with the triggers that would indicate the requirement to execute contingency plans.</t>
+          <t>• Symptoms:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  This column should be populated with the symptoms of risk that may eventually lead to the execution of a risk contingency plan.</t>
         </r>
       </text>
     </comment>
@@ -496,20 +473,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Risk Response Strategy: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be populated with the preferred risk response strategy.</t>
+          <t xml:space="preserve">• Triggers:  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be populated with the triggers that would indicate the requirement to execute contingency plans.</t>
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -519,20 +496,43 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>• ResponseStrategy</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>: This column should be populated an appropriate response strategy to prevent the risk from becoming an issue.</t>
+          <t xml:space="preserve">Risk Response Strategy: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be populated with the preferred risk response strategy.</t>
         </r>
       </text>
     </comment>
-    <comment ref="M7" authorId="1">
+    <comment ref="M7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>• ResponseStrategy</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>: This column should be populated an appropriate response strategy to prevent the risk from becoming an issue.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -748,6 +748,9 @@
   </si>
   <si>
     <t xml:space="preserve">Without a common vision all team members are currently developing based on their own understanding of the project. This could lead to inconsistant work being completed among members, affecting the outcome of the project. </t>
+  </si>
+  <si>
+    <t>Discussion</t>
   </si>
 </sst>
 </file>
@@ -1694,25 +1697,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="7" width="30.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
-    <col min="9" max="13" width="30.33203125" customWidth="1"/>
+    <col min="2" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="8" width="30.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="10" max="14" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>25</v>
       </c>
@@ -1720,31 +1723,32 @@
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="29"/>
       <c r="K1" s="29"/>
       <c r="L1" s="29"/>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="29"/>
+      <c r="N1" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:13" ht="23" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" ht="23" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1752,204 +1756,212 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="N7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="55" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="55" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="E8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="F8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="G8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="H8" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="J8" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="K8" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="M8" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="55" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="55" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="E9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="F9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="G9" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="H9" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="J9" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="K9" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="L9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="M9" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="N9" s="33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="55" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="55" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="H10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="31"/>
+      <c r="L10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="M10" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="34" t="s">
+      <c r="N10" s="34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="8" t="str">
-        <f t="shared" ref="E11:E12" si="0">IF(OR(AND(B11&lt;&gt;"Closed",C11="High",D11="High"),AND(B11&lt;&gt;"Closed",C11="High",D11="Medium"),AND(B11&lt;&gt;"Closed",C11="Medium",D11="High")),"Red",IF(OR(AND(B11&lt;&gt;"Closed",C11="High",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Medium",D11="Medium"),AND(B11&lt;&gt;"Closed",C11="Low",D11="High")),"Yellow",IF(OR(AND(B11&lt;&gt;"Closed",C11="Medium",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Low",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Low",D11="Medium")),"Green",IF(B11="Closed","Closed",""))))</f>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="8" t="str">
+        <f t="shared" ref="F11:F12" si="0">IF(OR(AND(B11&lt;&gt;"Closed",D11="High",E11="High"),AND(B11&lt;&gt;"Closed",D11="High",E11="Medium"),AND(B11&lt;&gt;"Closed",D11="Medium",E11="High")),"Red",IF(OR(AND(B11&lt;&gt;"Closed",D11="High",E11="Low"),AND(B11&lt;&gt;"Closed",D11="Medium",E11="Medium"),AND(B11&lt;&gt;"Closed",D11="Low",E11="High")),"Yellow",IF(OR(AND(B11&lt;&gt;"Closed",D11="Medium",E11="Low"),AND(B11&lt;&gt;"Closed",D11="Low",E11="Low"),AND(B11&lt;&gt;"Closed",D11="Low",E11="Medium")),"Green",IF(B11="Closed","Closed",""))))</f>
         <v/>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="8" t="str">
+      <c r="E12" s="7"/>
+      <c r="F12" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="19"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="19"/>
     </row>
-    <row r="15" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>19</v>
       </c>
@@ -1960,7 +1972,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B7:C7 B8:B12">
+  <conditionalFormatting sqref="B7:D7 B8:C12">
     <cfRule type="cellIs" dxfId="16" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -1971,7 +1983,7 @@
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L12">
+  <conditionalFormatting sqref="M11:M12">
     <cfRule type="cellIs" dxfId="13" priority="10" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
@@ -1979,7 +1991,7 @@
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8 E10:E12">
+  <conditionalFormatting sqref="F8 F10:F12">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
@@ -1990,7 +2002,7 @@
       <formula>"Green"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:D12">
+  <conditionalFormatting sqref="D8:E12">
     <cfRule type="cellIs" dxfId="8" priority="15" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
@@ -2001,7 +2013,7 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E1">
+  <conditionalFormatting sqref="D1:F1">
     <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -2012,7 +2024,7 @@
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="F9">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
@@ -2024,16 +2036,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 C8:D12 L11:L12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9 D8:E12 M11:M12">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L12">
       <formula1>"Acceptance,Avoidance,Contingency,Mitigation,Transfer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:C12">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I12">
       <formula1>Risk_Area</formula1>
     </dataValidation>
   </dataValidations>

--- a/Risk mangaement Log.xlsx
+++ b/Risk mangaement Log.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PeacheyMacbook/Google Drive/Uni/Development-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="32900" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="705" yWindow="465" windowWidth="32895" windowHeight="16875" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="Risk_Area">[1]DropDown_Elements!$A$2:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,11 +32,60 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>McKeahnie, Collin</author>
     <author>eze3</author>
     <author>e</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>McKeahnie, Collin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This needs to be finished</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>McKeahnie, Collin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+There are quite a lot of spelling mistakes through out the document. Spell check should pick them up</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +171,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>McKeahnie, Collin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Here would it be better to have a title or name for the risk. 
+At a glance it is hard to tell what the risks are.
+For example risk 1 could be called 'server unavalible' or something</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="E7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="1">
+    <comment ref="F7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -371,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="1">
+    <comment ref="H7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -440,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="1">
+    <comment ref="J7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -463,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K7" authorId="1">
+    <comment ref="K7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -486,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="1">
+    <comment ref="L7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -509,7 +584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M7" authorId="0">
+    <comment ref="M7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -532,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="1">
+    <comment ref="N7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -552,6 +627,225 @@
             <family val="2"/>
           </rPr>
           <t>This column should be populated with a description of the risk contingency plan.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>McKeahnie, Collin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This is not a description of the risk. The risk, if I understand correctly, is the server is unavalible and the description should be something about the user trying to start a game but has no questions or finish a game but cannot upload gamedata
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>McKeahnie, Collin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The impact of this risk on the project is the game will not run in multiplayer mode. If at start up the server is down the user will be presented with a pop up notification if at the end of a game the gamedata will be stored locally and uploaded at a later date (I just made that up change it as you want, but the impact has to be a clear thing that will happen if this risk occours)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>McKeahnie, Collin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Is this risk not in 'game play' or 'functionallity' or something? The actual architecture of the game wiill not be affected by the server being unreachable for a period of time</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">McKeahnie, Collin:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hostinger will inform the development team if the server is down as a result of an error at their end or if we need to adjust or servie plan to keep up with traffic demands</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>McKeahnie, Collin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+A trigger is something that may cause this risk to occure. In this case the trigger would be, the user has no internet access, our hosting company goes down or exessive traffic causes server errors</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>McKeahnie, Collin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+"….If the current service plan proves to…."
+also we are renting this space, its cheap but I do pay them
+This is really the contingency plan. Realistically our respons to a server crash is do nothing and wait it out.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>McKeahnie, Collin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+We now have a vision doc so is this closed?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>McKeahnie, Collin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Bold?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>McKeahnie, Collin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Delete this and comments from the document</t>
         </r>
       </text>
     </comment>
@@ -756,11 +1050,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -841,6 +1135,32 @@
       <sz val="8"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1317,6 +1637,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1325,110 +1648,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Instructions"/>
-      <sheetName val="Risk_Tracking_Log"/>
       <sheetName val="DropDown_Elements"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Schedule</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Initial Costs</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Life-cycle Costs</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Technical Obsolescence</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Feasibility</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Reliability of Systems</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Dependencies/Interoperability</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Surety Considerations</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Future Procurements</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Project Management</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Overall Project Failure</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Organizational/Change Management</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Business</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Data/Information</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Technology</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Strategic</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Security</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Privacy</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Project Resources</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1699,23 +1922,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="8" width="30.33203125" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
-    <col min="10" max="14" width="30.33203125" customWidth="1"/>
+    <col min="7" max="8" width="30.375" customWidth="1"/>
+    <col min="9" max="9" width="23.375" customWidth="1"/>
+    <col min="10" max="14" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>25</v>
       </c>
@@ -1737,18 +1960,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" ht="23" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1792,7 +2015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="55" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>20</v>
       </c>
@@ -1832,7 +2055,7 @@
       </c>
       <c r="N8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="55" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>21</v>
       </c>
@@ -1874,7 +2097,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="55" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>22</v>
       </c>
@@ -1914,7 +2137,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>23</v>
       </c>
@@ -1935,7 +2158,7 @@
       <c r="M11" s="16"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>24</v>
       </c>
@@ -1956,17 +2179,17 @@
       <c r="M12" s="13"/>
       <c r="N12" s="19"/>
     </row>
-    <row r="15" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2050,6 +2273,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Risk mangaement Log.xlsx
+++ b/Risk mangaement Log.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PeacheyMacbook/Google Drive/Uni/Development-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="705" yWindow="465" windowWidth="32895" windowHeight="16875" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32900" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="Risk_Area">[1]DropDown_Elements!$A$2:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,60 +32,97 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>McKeahnie, Collin</author>
     <author>eze3</author>
     <author>e</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>McKeahnie, Collin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-This needs to be finished</t>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>• ID</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>: A unique ID number used to identify the risk in the risk management log.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>McKeahnie, Collin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-There are quite a lot of spelling mistakes through out the document. Spell check should pick them up</t>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>• Current Status:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  This column should be populated with the risk's current status.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>o Open</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: The risk is currently open but is not yet an issue.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>o Closed</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>: The risk is no longer considered an active project threat and can be closed with or without resolution.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="1" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -95,20 +132,80 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>• ID</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>: A unique ID number used to identify the risk in the risk management log.</t>
+          <t>• Risk Impact</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: This column should be populated with the potential impact of the risk if it did become a project issue.  Valid options include the following: High, Medium, Low.  These are defined as follows:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>o High</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: Risk that has the potential to greatly impact project cost, project schedule or performance.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>o Medium</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: Risk that has the potential to slightly impact project cost, project schedule or performance.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>o Low</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>: Risk that has relatively little impact on cost, schedule or performance.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="1" shapeId="0">
+    <comment ref="E7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,16 +215,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>• Current Status:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  This column should be populated with the risk's current status.
+          <t>• Probability of Occurrence:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  This column should be populated with the estimated probability that the risk will at some point become a project issue.
 </t>
         </r>
         <r>
@@ -138,16 +235,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>o Open</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: The risk is currently open but is not yet an issue.
+          <t>o High</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: Greater than 70% probability of occurrence.
 </t>
         </r>
         <r>
@@ -158,46 +255,123 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>o Closed</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>: The risk is no longer considered an active project threat and can be closed with or without resolution.</t>
+          <t>o Medium</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: Between 30% and 70% probability of occurrence.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>o Low</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>: Below 30% probability of occurrence.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>McKeahnie, Collin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Here would it be better to have a title or name for the risk. 
-At a glance it is hard to tell what the risks are.
-For example risk 1 could be called 'server unavalible' or something</t>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>• Risk Map</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: This is a calculated field based on the values selected for both Risk Impact and Probability of Occurrence.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>o Green</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: LL (Low Probability, Low Impact), LM (Low Probability, Medium Impact), ML (Medium Probability, Low Impact)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>o Yellow</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: LH (Low Probability, High Impact), MM (Medium Probability, Medium Impact), HL (High Probability, Low Impact)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>o Red</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>: MH (Medium Probability, High Impact), HM (High Probability Medium Impact), HH (High Probability, High Impact)</t>
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="1" shapeId="0">
+    <comment ref="G7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,80 +381,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>• Risk Impact</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: This column should be populated with the potential impact of the risk if it did become a project issue.  Valid options include the following: High, Medium, Low.  These are defined as follows:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>o High</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: Risk that has the potential to greatly impact project cost, project schedule or performance.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>o Medium</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: Risk that has the potential to slightly impact project cost, project schedule or performance.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>o Low</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>: Risk that has relatively little impact on cost, schedule or performance.</t>
+          <t>• Risk Description</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:  This column should be populated with a description of the risk.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="1" shapeId="0">
+    <comment ref="H7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -290,80 +404,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>• Probability of Occurrence:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  This column should be populated with the estimated probability that the risk will at some point become a project issue.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>o High</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: Greater than 70% probability of occurrence.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>o Medium</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: Between 30% and 70% probability of occurrence.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>o Low</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>: Below 30% probability of occurrence.</t>
+          <t xml:space="preserve">• Project Impact:  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be populated with a description of the potential project impact as a result of the risk.</t>
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="2" shapeId="0">
+    <comment ref="I7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -373,80 +427,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>• Risk Map</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: This is a calculated field based on the values selected for both Risk Impact and Probability of Occurrence.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>o Green</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: LL (Low Probability, Low Impact), LM (Low Probability, Medium Impact), ML (Medium Probability, Low Impact)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>o Yellow</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: LH (Low Probability, High Impact), MM (Medium Probability, Medium Impact), HL (High Probability, Low Impact)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>o Red</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>: MH (Medium Probability, High Impact), HM (High Probability Medium Impact), HH (High Probability, High Impact)</t>
+          <t>• Risk Area:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> This column should be populated with the appropriate risk area.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="1" shapeId="0">
+    <comment ref="J7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -456,20 +450,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>• Risk Description</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:  This column should be populated with a description of the risk.</t>
+          <t>• Symptoms:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  This column should be populated with the symptoms of risk that may eventually lead to the execution of a risk contingency plan.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="2" shapeId="0">
+    <comment ref="K7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -479,20 +473,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">• Project Impact:  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be populated with a description of the potential project impact as a result of the risk.</t>
+          <t xml:space="preserve">• Triggers:  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be populated with the triggers that would indicate the requirement to execute contingency plans.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="1" shapeId="0">
+    <comment ref="L7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -502,20 +496,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>• Risk Area:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> This column should be populated with the appropriate risk area.</t>
+          <t xml:space="preserve">Risk Response Strategy: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be populated with the preferred risk response strategy.</t>
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="2" shapeId="0">
+    <comment ref="M7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -525,20 +519,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>• Symptoms:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  This column should be populated with the symptoms of risk that may eventually lead to the execution of a risk contingency plan.</t>
+          <t>• Response Strategy</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>: This column should be populated an appropriate response strategy to prevent the risk from becoming an issue.</t>
         </r>
       </text>
     </comment>
-    <comment ref="K7" authorId="2" shapeId="0">
+    <comment ref="N7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -548,75 +542,6 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">• Triggers:  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be populated with the triggers that would indicate the requirement to execute contingency plans.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L7" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Risk Response Strategy: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be populated with the preferred risk response strategy.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M7" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>• ResponseStrategy</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>: This column should be populated an appropriate response strategy to prevent the risk from becoming an issue.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N7" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve">• Contingency Plan:  </t>
         </r>
         <r>
@@ -627,225 +552,6 @@
             <family val="2"/>
           </rPr>
           <t>This column should be populated with a description of the risk contingency plan.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>McKeahnie, Collin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-This is not a description of the risk. The risk, if I understand correctly, is the server is unavalible and the description should be something about the user trying to start a game but has no questions or finish a game but cannot upload gamedata
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>McKeahnie, Collin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-The impact of this risk on the project is the game will not run in multiplayer mode. If at start up the server is down the user will be presented with a pop up notification if at the end of a game the gamedata will be stored locally and uploaded at a later date (I just made that up change it as you want, but the impact has to be a clear thing that will happen if this risk occours)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>McKeahnie, Collin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Is this risk not in 'game play' or 'functionallity' or something? The actual architecture of the game wiill not be affected by the server being unreachable for a period of time</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">McKeahnie, Collin:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Hostinger will inform the development team if the server is down as a result of an error at their end or if we need to adjust or servie plan to keep up with traffic demands</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>McKeahnie, Collin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-A trigger is something that may cause this risk to occure. In this case the trigger would be, the user has no internet access, our hosting company goes down or exessive traffic causes server errors</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>McKeahnie, Collin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-"….If the current service plan proves to…."
-also we are renting this space, its cheap but I do pay them
-This is really the contingency plan. Realistically our respons to a server crash is do nothing and wait it out.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>McKeahnie, Collin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-We now have a vision doc so is this closed?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>McKeahnie, Collin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bold?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>McKeahnie, Collin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Delete this and comments from the document</t>
         </r>
       </text>
     </comment>
@@ -854,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -917,52 +623,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Several generic and a comprehensive set of project specific risks are identified, discussed and prioritized</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mitigation strategies are specific, a plan is in place to effect those strategies, and that plan shows up in iteration planning and reporting</t>
-    </r>
-  </si>
-  <si>
     <t>#001</t>
   </si>
   <si>
@@ -981,54 +641,12 @@
     <t>RISK MANAGEMENT LOG</t>
   </si>
   <si>
-    <t xml:space="preserve">Project Name: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Participants: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project requires a server to allow gameplay between devices. We are currently running with the idea of using a personal server, there is a possibility that this may not be available for the duration of the project. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A server is a requirement for the functionality of this project. </t>
-  </si>
-  <si>
     <t>Project Architecture</t>
   </si>
   <si>
-    <t xml:space="preserve">Team will research a backup system. If the personal proves to be insufficient for our operations or becomes unavilabel due to other reasons we will migrate to a rented server space. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collin will inform team if any problems arise with the personal server. During early testing we will perform tests to prove if sever can meet our required demand. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collin infroms team that server is no longer aavailable OR server cannot keep up with demand during testing. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">During this early stage the team is required to prove our use of the technolgies we wish to use for this project. These include PHP, Unity, C# and creating apps for Android and iOS. The risk is if we are not able to do so. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The listed technologies, PHP, Unity, C#, iOS and Android development, are required for the proposed project to be completed. A failure in any one of these areas would mean we will not meet our intended goal. </t>
   </si>
   <si>
-    <t xml:space="preserve">None of the team members are able to come up with solutions to prove our use of the technolgies. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two weeks before assignment deadline and the proposed technolgies have not yet been proven. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team will prioritise the technolgies that have not yet been proven and collectively attempt to come up with solutions. Bringing in necessary support from staff or online resources. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternatively, the scope of the project woulld need to be changed to only use technolgies that have been proven. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">*note: Any additional risks that come up in iteration plan meetings must be reported to this document. Conversly, any risks that are added to this plan must be brought up in iteration plan meetings. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project scope has not been clearly identified. Group members are currently completing tasks without a succient project vision. </t>
-  </si>
-  <si>
     <t>Project Planning, Project Management</t>
   </si>
   <si>
@@ -1038,23 +656,83 @@
     <t xml:space="preserve">As part of Assignment 1. A project vision will be submitted and distributed to team members throughout its development. This will give all group members the same goal when writing their documentation. </t>
   </si>
   <si>
-    <t xml:space="preserve">Weekly meetings are being held to keep eveyrone accoutable for their work. Minimising any long term effects with not having this document. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Without a common vision all team members are currently developing based on their own understanding of the project. This could lead to inconsistant work being completed among members, affecting the outcome of the project. </t>
-  </si>
-  <si>
-    <t>Discussion</t>
+    <t>Project Name: Let's Quiz</t>
+  </si>
+  <si>
+    <t>Project Participants: Aaron, Charnes, Collin, Michelle</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk if server is unavailable during gameplay the user will not be able to start a new game or continue a current one. </t>
+  </si>
+  <si>
+    <t>Gameplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hosting company will inform team members of an outage and/or if traffic is reaching its limit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If either the user has no internet connection, the server becomes unavailable or traffic limits are reached on the server. </t>
+  </si>
+  <si>
+    <t>Name of Risk</t>
+  </si>
+  <si>
+    <t>Server Connection Unavailable</t>
+  </si>
+  <si>
+    <t>Proof of Skill</t>
+  </si>
+  <si>
+    <t>Project Scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project scope has not been clearly identified. Group members are currently completing tasks without a succinct project vision. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without a common vision all team members are currently developing based on their own understanding of the project. This could lead to inconsistent work being completed among members, affecting the outcome of the project. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly meetings are being held to keep everyone accountable for their work. Minimising any long term effects with not having this document. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*note: Any additional risks that come up in iteration plan meetings must be reported to this document. Conversely, any risks that are added to this plan must be brought up in iteration plan meetings. </t>
+  </si>
+  <si>
+    <t>If server is not available then the player will not be able to update game data at the end of a round. A notification will appear saying it will try again later and the game data will temporarily be stored locally. The player will be restricted to single player gameplay in this time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In response to an outage there is not much the team can do. We will contact the server company to try and rectify the issue as soon as possible. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If traffic limits are reached we will increase our server allowance. If the server continually crashes the team will investigate a migration to another provider. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">During this early stage the team is required to prove our use of the technologies we wish to use for this project. These include PHP, Unity, C# and creating apps for Android and iOS. The risk is if we are not able to do so. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">None of the team members are able to come up with solutions to prove our use of the technologies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two weeks before assignment deadline and the proposed technologies have not yet been proven. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team will prioritise the technologies that have not yet been proven and collectively attempt to come up with solutions. Bringing in necessary support from staff or online resources. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternatively, the scope of the project would need to be changed to only use technologies that have been proven. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1115,11 +793,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color theme="5"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1135,32 +808,6 @@
       <sz val="8"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1435,9 +1082,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1474,19 +1118,19 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1503,6 +1147,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1637,9 +1284,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1648,10 +1292,110 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Instructions"/>
+      <sheetName val="Risk_Tracking_Log"/>
       <sheetName val="DropDown_Elements"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Schedule</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Initial Costs</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Life-cycle Costs</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Technical Obsolescence</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Feasibility</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Reliability of Systems</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Dependencies/Interoperability</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Surety Considerations</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Future Procurements</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Project Management</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Overall Project Failure</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Organizational/Change Management</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Business</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Data/Information</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Technology</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Strategic</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Security</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Privacy</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Project Resources</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1920,58 +1664,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="8" width="30.375" customWidth="1"/>
-    <col min="9" max="9" width="23.375" customWidth="1"/>
-    <col min="10" max="14" width="30.375" customWidth="1"/>
+    <col min="7" max="8" width="30.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="10" max="14" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="26" t="s">
-        <v>25</v>
+    <row r="1" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="25" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" ht="23" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1979,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
@@ -2015,152 +1759,160 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>20</v>
+    <row r="8" spans="1:14" ht="66" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>29</v>
+      <c r="G8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="31" t="s">
-        <v>32</v>
+      <c r="J8" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>35</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="12"/>
+      <c r="M8" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>21</v>
+    <row r="9" spans="1:14" ht="55" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>35</v>
+      <c r="G9" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="33" t="s">
+      <c r="M9" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="55" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="31" t="s">
-        <v>46</v>
-      </c>
       <c r="I10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="31"/>
+        <v>26</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="30"/>
       <c r="L10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>45</v>
+      <c r="M10" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>23</v>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="8"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="8" t="str">
         <f t="shared" ref="F11:F12" si="0">IF(OR(AND(B11&lt;&gt;"Closed",D11="High",E11="High"),AND(B11&lt;&gt;"Closed",D11="High",E11="Medium"),AND(B11&lt;&gt;"Closed",D11="Medium",E11="High")),"Red",IF(OR(AND(B11&lt;&gt;"Closed",D11="High",E11="Low"),AND(B11&lt;&gt;"Closed",D11="Medium",E11="Medium"),AND(B11&lt;&gt;"Closed",D11="Low",E11="High")),"Yellow",IF(OR(AND(B11&lt;&gt;"Closed",D11="Medium",E11="Low"),AND(B11&lt;&gt;"Closed",D11="Low",E11="Low"),AND(B11&lt;&gt;"Closed",D11="Low",E11="Medium")),"Green",IF(B11="Closed","Closed",""))))</f>
         <v/>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="31"/>
+      <c r="K11" s="30"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="16"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>24</v>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="8"/>
@@ -2170,32 +1922,25 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="31"/>
+      <c r="K12" s="30"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="19"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="18"/>
     </row>
-    <row r="15" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>18</v>
-      </c>
+    <row r="15" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
     </row>
-    <row r="16" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>40</v>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B7:D7 B8:C12">
+  <conditionalFormatting sqref="B7:D7 B11:C12 B8:B10">
     <cfRule type="cellIs" dxfId="16" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -2265,7 +2010,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L12">
       <formula1>"Acceptance,Avoidance,Contingency,Mitigation,Transfer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B12 C11:C12">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I12">
@@ -2273,7 +2018,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Risk mangaement Log.xlsx
+++ b/Risk mangaement Log.xlsx
@@ -29,536 +29,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>eze3</author>
-    <author>e</author>
-  </authors>
-  <commentList>
-    <comment ref="A7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>• ID</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>: A unique ID number used to identify the risk in the risk management log.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>• Current Status:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  This column should be populated with the risk's current status.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>o Open</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: The risk is currently open but is not yet an issue.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>o Closed</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>: The risk is no longer considered an active project threat and can be closed with or without resolution.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>• Risk Impact</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: This column should be populated with the potential impact of the risk if it did become a project issue.  Valid options include the following: High, Medium, Low.  These are defined as follows:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>o High</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: Risk that has the potential to greatly impact project cost, project schedule or performance.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>o Medium</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: Risk that has the potential to slightly impact project cost, project schedule or performance.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>o Low</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>: Risk that has relatively little impact on cost, schedule or performance.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>• Probability of Occurrence:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  This column should be populated with the estimated probability that the risk will at some point become a project issue.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>o High</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: Greater than 70% probability of occurrence.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>o Medium</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: Between 30% and 70% probability of occurrence.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>o Low</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>: Below 30% probability of occurrence.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>• Risk Map</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: This is a calculated field based on the values selected for both Risk Impact and Probability of Occurrence.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>o Green</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: LL (Low Probability, Low Impact), LM (Low Probability, Medium Impact), ML (Medium Probability, Low Impact)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>o Yellow</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: LH (Low Probability, High Impact), MM (Medium Probability, Medium Impact), HL (High Probability, Low Impact)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>o Red</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>: MH (Medium Probability, High Impact), HM (High Probability Medium Impact), HH (High Probability, High Impact)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>• Risk Description</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:  This column should be populated with a description of the risk.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H7" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">• Project Impact:  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be populated with a description of the potential project impact as a result of the risk.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>• Risk Area:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> This column should be populated with the appropriate risk area.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J7" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>• Symptoms:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  This column should be populated with the symptoms of risk that may eventually lead to the execution of a risk contingency plan.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K7" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">• Triggers:  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be populated with the triggers that would indicate the requirement to execute contingency plans.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L7" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Risk Response Strategy: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be populated with the preferred risk response strategy.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>• Response Strategy</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>: This column should be populated an appropriate response strategy to prevent the risk from becoming an issue.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N7" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">• Contingency Plan:  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be populated with a description of the risk contingency plan.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
@@ -732,7 +202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -770,19 +240,6 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1103,7 +560,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1118,19 +575,19 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1663,11 +1120,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="179" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2018,6 +1475,5 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>